--- a/src/zdemo_excel30.w3mi.data.xlsx
+++ b/src/zdemo_excel30.w3mi.data.xlsx
@@ -16,6 +16,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t xml:space="preserve"> String with leading spaces</t>
+  </si>
   <si>
     <t>0 %</t>
   </si>
@@ -428,24 +431,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -454,7 +457,7 @@
         <v>-50000.010000000002</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>40786</v>
@@ -462,97 +465,97 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>5000.0200000000004</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1234567890.5000000</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>12345678905.000000</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>123456789050.00000</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1234567890500.0000</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>12345678905000.000</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>123456789050000.00</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/zdemo_excel30.w3mi.data.xlsx
+++ b/src/zdemo_excel30.w3mi.data.xlsx
@@ -59,9 +59,6 @@
     <t>Packed</t>
   </si>
   <si>
-    <t>Positive Value</t>
-  </si>
-  <si>
     <t>Positive Value with 10  Digits</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>String without leading spaces</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>5000.0200000000004</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1234567890.5000000</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
@@ -490,13 +490,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>12345678905.000000</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -504,13 +504,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>123456789050.00000</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -518,13 +518,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>1234567890500.0000</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>12345678905000.000</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -546,13 +546,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>123456789050000.00</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>

--- a/src/zdemo_excel30.w3mi.data.xlsx
+++ b/src/zdemo_excel30.w3mi.data.xlsx
@@ -17,6 +17,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
+    <t xml:space="preserve"> String with leading spaces</t>
+  </si>
+  <si>
     <t>0 %</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
     <t>Packed</t>
   </si>
   <si>
-    <t>Positive Value</t>
-  </si>
-  <si>
     <t>Positive Value with 10  Digits</t>
   </si>
   <si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>String without leading spaces</t>
   </si>
 </sst>
 </file>
@@ -428,24 +431,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -454,7 +457,7 @@
         <v>-50000.010000000002</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>40786</v>
@@ -462,13 +465,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>5000.0200000000004</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -482,7 +485,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -496,7 +499,7 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -510,7 +513,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -524,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -538,7 +541,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -552,7 +555,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
